--- a/src/main/resources/config/BulkUploadConfigMapping.xlsx
+++ b/src/main/resources/config/BulkUploadConfigMapping.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Client Name</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Payroll Month</t>
+  </si>
+  <si>
+    <t>WAGES</t>
+  </si>
+  <si>
+    <t>Wage</t>
   </si>
   <si>
     <t>Y</t>
@@ -1442,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1578,15 +1584,19 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="8"/>
+      <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
@@ -1599,11 +1609,18 @@
       <c r="E14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1616,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1635,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -1646,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
@@ -1654,10 +1671,10 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -1668,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
@@ -1679,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -1690,7 +1707,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
@@ -1701,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -1712,7 +1729,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -1720,10 +1737,10 @@
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s" s="3">
         <v>21</v>
-      </c>
-      <c r="B9" t="s" s="3">
-        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -1734,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -1745,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -1761,15 +1778,17 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
+      <c r="A13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
@@ -2573,11 +2592,18 @@
       <c r="E128" s="9"/>
     </row>
     <row r="129" ht="15" customHeight="1">
-      <c r="A129" s="20"/>
-      <c r="B129" s="14"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="15"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" ht="15" customHeight="1">
+      <c r="A130" s="20"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/config/BulkUploadConfigMapping.xlsx
+++ b/src/main/resources/config/BulkUploadConfigMapping.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Client Name</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>Wage</t>
+  </si>
+  <si>
+    <t>HRA</t>
+  </si>
+  <si>
+    <t>Conveyance</t>
+  </si>
+  <si>
+    <t>OT Hours</t>
+  </si>
+  <si>
+    <t>Job Description Id</t>
+  </si>
+  <si>
+    <t>PMRPY</t>
+  </si>
+  <si>
+    <t>AADHAR</t>
   </si>
   <si>
     <t>Y</t>
@@ -115,7 +133,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +146,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -158,7 +182,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -167,7 +191,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -175,10 +199,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -202,7 +226,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top/>
       <bottom/>
@@ -210,7 +234,75 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
       </left>
       <right/>
       <top style="thin">
@@ -230,7 +322,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right/>
       <top/>
@@ -239,32 +331,12 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -274,7 +346,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -284,58 +356,61 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -356,6 +431,7 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffd2dae4"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -507,9 +583,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -589,7 +665,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -617,10 +693,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -876,9 +952,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1166,7 +1242,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1194,10 +1270,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1448,7 +1524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1456,9 +1532,7 @@
   <cols>
     <col min="1" max="1" width="31.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="1" customWidth="1"/>
     <col min="6" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1595,32 +1669,70 @@
       <c r="E12" s="9"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
+      <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="3">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="3">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s" s="3">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
+      <c r="A16" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s" s="3">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s" s="3">
+        <v>25</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s" s="3">
+        <v>26</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1641,9 +1753,7 @@
   <cols>
     <col min="1" max="1" width="29" style="16" customWidth="1"/>
     <col min="2" max="2" width="2" style="16" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="16" customWidth="1"/>
+    <col min="3" max="5" width="8.85156" style="16" customWidth="1"/>
     <col min="6" max="256" width="8.85156" style="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1652,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -1663,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="8"/>
@@ -1671,10 +1781,10 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -1685,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="8"/>
@@ -1696,7 +1806,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -1707,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
@@ -1718,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
@@ -1729,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
@@ -1737,10 +1847,10 @@
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -1751,7 +1861,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
@@ -1762,7 +1872,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
@@ -1787,823 +1897,835 @@
       <c r="E13" s="9"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="8"/>
+      <c r="A14" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="A15" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="A16" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="8"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="A17" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="A18" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="A19" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="9"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="9"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="9"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="9"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="9"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="19"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="9"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="9"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="9"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="9"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="9"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="19"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="9"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="19"/>
+      <c r="A37" s="20"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="9"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="19"/>
+      <c r="A38" s="20"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="9"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="19"/>
+      <c r="A39" s="20"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="9"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="19"/>
+      <c r="A40" s="20"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="9"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="19"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="9"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="9"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="9"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="19"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="19"/>
+      <c r="A46" s="20"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="9"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="19"/>
+      <c r="A47" s="20"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="9"/>
     </row>
     <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="9"/>
     </row>
     <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="9"/>
     </row>
     <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="9"/>
     </row>
     <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="9"/>
     </row>
     <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
     </row>
     <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="9"/>
     </row>
     <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="19"/>
+      <c r="A54" s="20"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="9"/>
     </row>
     <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="19"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="9"/>
     </row>
     <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="9"/>
     </row>
     <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="9"/>
     </row>
     <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="9"/>
     </row>
     <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
     </row>
     <row r="60" ht="15" customHeight="1">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="9"/>
     </row>
     <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="19"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="9"/>
     </row>
     <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="19"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="9"/>
     </row>
     <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="19"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
     </row>
     <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="19"/>
+      <c r="A64" s="20"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="9"/>
     </row>
     <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="19"/>
+      <c r="A65" s="20"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="9"/>
     </row>
     <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="19"/>
+      <c r="A66" s="20"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="9"/>
     </row>
     <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="19"/>
+      <c r="A67" s="20"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="9"/>
     </row>
     <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="19"/>
+      <c r="A68" s="20"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="9"/>
     </row>
     <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="19"/>
+      <c r="A69" s="20"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="19"/>
+      <c r="A70" s="20"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="9"/>
     </row>
     <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="19"/>
+      <c r="A71" s="20"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="9"/>
     </row>
     <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="19"/>
+      <c r="A72" s="20"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="9"/>
     </row>
     <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="19"/>
+      <c r="A73" s="20"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="19"/>
+      <c r="A74" s="20"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="9"/>
     </row>
     <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="19"/>
+      <c r="A75" s="20"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
     </row>
     <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="19"/>
+      <c r="A76" s="20"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
     </row>
     <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="19"/>
+      <c r="A77" s="20"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
     </row>
     <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="19"/>
+      <c r="A78" s="20"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="9"/>
     </row>
     <row r="79" ht="15" customHeight="1">
-      <c r="A79" s="19"/>
+      <c r="A79" s="20"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="9"/>
     </row>
     <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="19"/>
+      <c r="A80" s="20"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="9"/>
     </row>
     <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="19"/>
+      <c r="A81" s="20"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="9"/>
     </row>
     <row r="82" ht="15" customHeight="1">
-      <c r="A82" s="19"/>
+      <c r="A82" s="20"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
     </row>
     <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="19"/>
+      <c r="A83" s="20"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="9"/>
     </row>
     <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="19"/>
+      <c r="A84" s="20"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="9"/>
     </row>
     <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="19"/>
+      <c r="A85" s="20"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="9"/>
     </row>
     <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="19"/>
+      <c r="A86" s="20"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="9"/>
     </row>
     <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="19"/>
+      <c r="A87" s="20"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="9"/>
     </row>
     <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="19"/>
+      <c r="A88" s="20"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
     </row>
     <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="19"/>
+      <c r="A89" s="20"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
     </row>
     <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="19"/>
+      <c r="A90" s="20"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
     </row>
     <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="19"/>
+      <c r="A91" s="20"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
     </row>
     <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="19"/>
+      <c r="A92" s="20"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="9"/>
     </row>
     <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="19"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="9"/>
     </row>
     <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="19"/>
+      <c r="A94" s="20"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
     </row>
     <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="19"/>
+      <c r="A95" s="20"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="9"/>
     </row>
     <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="19"/>
+      <c r="A96" s="20"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="9"/>
     </row>
     <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="19"/>
+      <c r="A97" s="20"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="9"/>
     </row>
     <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="19"/>
+      <c r="A98" s="20"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="9"/>
     </row>
     <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="19"/>
+      <c r="A99" s="20"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="19"/>
+      <c r="A100" s="20"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="9"/>
     </row>
     <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="19"/>
+      <c r="A101" s="20"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" ht="15" customHeight="1">
-      <c r="A102" s="19"/>
+      <c r="A102" s="20"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="9"/>
     </row>
     <row r="103" ht="15" customHeight="1">
-      <c r="A103" s="19"/>
+      <c r="A103" s="20"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" ht="15" customHeight="1">
-      <c r="A104" s="19"/>
+      <c r="A104" s="20"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="9"/>
     </row>
     <row r="105" ht="15" customHeight="1">
-      <c r="A105" s="19"/>
+      <c r="A105" s="20"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="9"/>
     </row>
     <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="19"/>
+      <c r="A106" s="20"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="9"/>
     </row>
     <row r="107" ht="15" customHeight="1">
-      <c r="A107" s="19"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="19"/>
+      <c r="A108" s="20"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="9"/>
     </row>
     <row r="109" ht="15" customHeight="1">
-      <c r="A109" s="19"/>
+      <c r="A109" s="20"/>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" ht="15" customHeight="1">
-      <c r="A110" s="19"/>
+      <c r="A110" s="20"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="9"/>
     </row>
     <row r="111" ht="15" customHeight="1">
-      <c r="A111" s="19"/>
+      <c r="A111" s="20"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="9"/>
     </row>
     <row r="112" ht="15" customHeight="1">
-      <c r="A112" s="19"/>
+      <c r="A112" s="20"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="9"/>
     </row>
     <row r="113" ht="15" customHeight="1">
-      <c r="A113" s="19"/>
+      <c r="A113" s="20"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="9"/>
     </row>
     <row r="114" ht="15" customHeight="1">
-      <c r="A114" s="19"/>
+      <c r="A114" s="20"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="9"/>
     </row>
     <row r="115" ht="15" customHeight="1">
-      <c r="A115" s="19"/>
+      <c r="A115" s="20"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="9"/>
     </row>
     <row r="116" ht="15" customHeight="1">
-      <c r="A116" s="19"/>
+      <c r="A116" s="20"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="9"/>
     </row>
     <row r="117" ht="15" customHeight="1">
-      <c r="A117" s="19"/>
+      <c r="A117" s="20"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="9"/>
     </row>
     <row r="118" ht="15" customHeight="1">
-      <c r="A118" s="19"/>
+      <c r="A118" s="20"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="9"/>
     </row>
     <row r="119" ht="15" customHeight="1">
-      <c r="A119" s="19"/>
+      <c r="A119" s="20"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="9"/>
     </row>
     <row r="120" ht="15" customHeight="1">
-      <c r="A120" s="19"/>
+      <c r="A120" s="20"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="9"/>
     </row>
     <row r="121" ht="15" customHeight="1">
-      <c r="A121" s="19"/>
+      <c r="A121" s="20"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="9"/>
     </row>
     <row r="122" ht="15" customHeight="1">
-      <c r="A122" s="19"/>
+      <c r="A122" s="20"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="9"/>
     </row>
     <row r="123" ht="15" customHeight="1">
-      <c r="A123" s="19"/>
+      <c r="A123" s="20"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="9"/>
     </row>
     <row r="124" ht="15" customHeight="1">
-      <c r="A124" s="19"/>
+      <c r="A124" s="20"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="9"/>
     </row>
     <row r="125" ht="15" customHeight="1">
-      <c r="A125" s="19"/>
+      <c r="A125" s="20"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="9"/>
     </row>
     <row r="126" ht="15" customHeight="1">
-      <c r="A126" s="19"/>
+      <c r="A126" s="20"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="9"/>
     </row>
     <row r="127" ht="15" customHeight="1">
-      <c r="A127" s="19"/>
+      <c r="A127" s="20"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="9"/>
     </row>
     <row r="128" ht="15" customHeight="1">
-      <c r="A128" s="19"/>
+      <c r="A128" s="20"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="9"/>
     </row>
     <row r="129" ht="15" customHeight="1">
-      <c r="A129" s="19"/>
+      <c r="A129" s="20"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="9"/>
     </row>
     <row r="130" ht="15" customHeight="1">
-      <c r="A130" s="20"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="15"/>
+      <c r="A130" s="21"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
